--- a/result/Database_indiv.xlsx
+++ b/result/Database_indiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>level_of_deepest_hierarchy</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_components</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -518,6 +523,9 @@
       <c r="J2" t="n">
         <v>4</v>
       </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -552,6 +560,9 @@
       <c r="J3" t="n">
         <v>3</v>
       </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,6 +597,9 @@
       <c r="J4" t="n">
         <v>1</v>
       </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -620,6 +634,9 @@
       <c r="J5" t="n">
         <v>1</v>
       </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,6 +671,9 @@
       <c r="J6" t="n">
         <v>2</v>
       </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -688,6 +708,9 @@
       <c r="J7" t="n">
         <v>3</v>
       </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -722,6 +745,9 @@
       <c r="J8" t="n">
         <v>3</v>
       </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -756,6 +782,9 @@
       <c r="J9" t="n">
         <v>4</v>
       </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -790,6 +819,9 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -824,6 +856,9 @@
       <c r="J11" t="n">
         <v>1</v>
       </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -858,6 +893,9 @@
       <c r="J12" t="n">
         <v>4</v>
       </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -892,6 +930,9 @@
       <c r="J13" t="n">
         <v>6</v>
       </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -926,6 +967,9 @@
       <c r="J14" t="n">
         <v>5</v>
       </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -960,6 +1004,9 @@
       <c r="J15" t="n">
         <v>1</v>
       </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -994,6 +1041,9 @@
       <c r="J16" t="n">
         <v>5</v>
       </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1028,6 +1078,9 @@
       <c r="J17" t="n">
         <v>6</v>
       </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1062,6 +1115,9 @@
       <c r="J18" t="n">
         <v>2</v>
       </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1096,6 +1152,9 @@
       <c r="J19" t="n">
         <v>6</v>
       </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1130,6 +1189,9 @@
       <c r="J20" t="n">
         <v>5</v>
       </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1164,6 +1226,9 @@
       <c r="J21" t="n">
         <v>1</v>
       </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1198,6 +1263,9 @@
       <c r="J22" t="n">
         <v>1</v>
       </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1232,6 +1300,9 @@
       <c r="J23" t="n">
         <v>5</v>
       </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1266,6 +1337,9 @@
       <c r="J24" t="n">
         <v>5</v>
       </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1300,6 +1374,9 @@
       <c r="J25" t="n">
         <v>1</v>
       </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1334,6 +1411,9 @@
       <c r="J26" t="n">
         <v>6</v>
       </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1368,6 +1448,9 @@
       <c r="J27" t="n">
         <v>6</v>
       </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1402,6 +1485,9 @@
       <c r="J28" t="n">
         <v>4</v>
       </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1436,6 +1522,9 @@
       <c r="J29" t="n">
         <v>1</v>
       </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1470,6 +1559,9 @@
       <c r="J30" t="n">
         <v>1</v>
       </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1504,6 +1596,9 @@
       <c r="J31" t="n">
         <v>1</v>
       </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1538,6 +1633,9 @@
       <c r="J32" t="n">
         <v>6</v>
       </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1572,6 +1670,9 @@
       <c r="J33" t="n">
         <v>1</v>
       </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1606,6 +1707,9 @@
       <c r="J34" t="n">
         <v>5</v>
       </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1640,6 +1744,9 @@
       <c r="J35" t="n">
         <v>3</v>
       </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1674,6 +1781,9 @@
       <c r="J36" t="n">
         <v>1</v>
       </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1708,6 +1818,9 @@
       <c r="J37" t="n">
         <v>3</v>
       </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1742,6 +1855,9 @@
       <c r="J38" t="n">
         <v>5</v>
       </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1776,6 +1892,9 @@
       <c r="J39" t="n">
         <v>6</v>
       </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1810,6 +1929,9 @@
       <c r="J40" t="n">
         <v>1</v>
       </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1844,6 +1966,9 @@
       <c r="J41" t="n">
         <v>7</v>
       </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1878,6 +2003,9 @@
       <c r="J42" t="n">
         <v>1</v>
       </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1912,6 +2040,9 @@
       <c r="J43" t="n">
         <v>3</v>
       </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1946,6 +2077,9 @@
       <c r="J44" t="n">
         <v>4</v>
       </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1980,6 +2114,9 @@
       <c r="J45" t="n">
         <v>6</v>
       </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2014,6 +2151,9 @@
       <c r="J46" t="n">
         <v>3</v>
       </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2048,6 +2188,9 @@
       <c r="J47" t="n">
         <v>1</v>
       </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2082,6 +2225,9 @@
       <c r="J48" t="n">
         <v>5</v>
       </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2116,6 +2262,9 @@
       <c r="J49" t="n">
         <v>3</v>
       </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2150,6 +2299,9 @@
       <c r="J50" t="n">
         <v>6</v>
       </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2184,6 +2336,9 @@
       <c r="J51" t="n">
         <v>5</v>
       </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2218,6 +2373,9 @@
       <c r="J52" t="n">
         <v>4</v>
       </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2252,6 +2410,9 @@
       <c r="J53" t="n">
         <v>1</v>
       </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2286,6 +2447,9 @@
       <c r="J54" t="n">
         <v>5</v>
       </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2320,6 +2484,9 @@
       <c r="J55" t="n">
         <v>1</v>
       </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2354,6 +2521,9 @@
       <c r="J56" t="n">
         <v>4</v>
       </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2388,6 +2558,9 @@
       <c r="J57" t="n">
         <v>3</v>
       </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2422,6 +2595,9 @@
       <c r="J58" t="n">
         <v>6</v>
       </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2456,6 +2632,9 @@
       <c r="J59" t="n">
         <v>6</v>
       </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2490,6 +2669,9 @@
       <c r="J60" t="n">
         <v>3</v>
       </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2524,6 +2706,9 @@
       <c r="J61" t="n">
         <v>4</v>
       </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2558,6 +2743,9 @@
       <c r="J62" t="n">
         <v>7</v>
       </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2592,6 +2780,9 @@
       <c r="J63" t="n">
         <v>6</v>
       </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2626,6 +2817,9 @@
       <c r="J64" t="n">
         <v>1</v>
       </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2660,6 +2854,9 @@
       <c r="J65" t="n">
         <v>6</v>
       </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2694,6 +2891,9 @@
       <c r="J66" t="n">
         <v>5</v>
       </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2728,6 +2928,9 @@
       <c r="J67" t="n">
         <v>4</v>
       </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2762,6 +2965,9 @@
       <c r="J68" t="n">
         <v>4</v>
       </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2796,6 +3002,9 @@
       <c r="J69" t="n">
         <v>1</v>
       </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2830,6 +3039,9 @@
       <c r="J70" t="n">
         <v>6</v>
       </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2864,6 +3076,9 @@
       <c r="J71" t="n">
         <v>4</v>
       </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2898,6 +3113,9 @@
       <c r="J72" t="n">
         <v>5</v>
       </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2932,6 +3150,9 @@
       <c r="J73" t="n">
         <v>4</v>
       </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2966,6 +3187,9 @@
       <c r="J74" t="n">
         <v>6</v>
       </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3000,6 +3224,9 @@
       <c r="J75" t="n">
         <v>1</v>
       </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3034,6 +3261,9 @@
       <c r="J76" t="n">
         <v>5</v>
       </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3068,6 +3298,9 @@
       <c r="J77" t="n">
         <v>1</v>
       </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3102,6 +3335,9 @@
       <c r="J78" t="n">
         <v>1</v>
       </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3136,6 +3372,9 @@
       <c r="J79" t="n">
         <v>4</v>
       </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3170,6 +3409,9 @@
       <c r="J80" t="n">
         <v>1</v>
       </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3204,6 +3446,9 @@
       <c r="J81" t="n">
         <v>1</v>
       </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3238,6 +3483,9 @@
       <c r="J82" t="n">
         <v>1</v>
       </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3272,6 +3520,9 @@
       <c r="J83" t="n">
         <v>6</v>
       </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3306,6 +3557,9 @@
       <c r="J84" t="n">
         <v>5</v>
       </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3340,6 +3594,9 @@
       <c r="J85" t="n">
         <v>4</v>
       </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3374,6 +3631,9 @@
       <c r="J86" t="n">
         <v>6</v>
       </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3408,6 +3668,9 @@
       <c r="J87" t="n">
         <v>1</v>
       </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3442,6 +3705,9 @@
       <c r="J88" t="n">
         <v>4</v>
       </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3476,6 +3742,9 @@
       <c r="J89" t="n">
         <v>1</v>
       </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3510,6 +3779,9 @@
       <c r="J90" t="n">
         <v>1</v>
       </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3544,6 +3816,9 @@
       <c r="J91" t="n">
         <v>5</v>
       </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3578,6 +3853,9 @@
       <c r="J92" t="n">
         <v>1</v>
       </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3611,6 +3889,9 @@
       </c>
       <c r="J93" t="n">
         <v>8</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result/Database_indiv.xlsx
+++ b/result/Database_indiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,40 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>num_of_hierarchies</t>
+          <t>num_of_crosslinks</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>num_of_crosslinks</t>
+          <t>ASPL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ASPL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>network_density</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>network_density</t>
+          <t>complexity</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>level_of_deepest_hierarchy</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>level_of_deepest_hierarchy</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>num_of_components</t>
         </is>
@@ -500,31 +495,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.611111111111111</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -540,27 +532,24 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.138888888888889</v>
       </c>
       <c r="F3" t="n">
-        <v>2.138888888888889</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -577,27 +566,24 @@
         <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2.354497354497354</v>
       </c>
       <c r="F4" t="n">
-        <v>2.354497354497354</v>
+        <v>0.03830409356725146</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03830409356725146</v>
+        <v>0.07671957671957672</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07671957671957672</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="I4" t="n">
-        <v>2.071428571428572</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -614,27 +600,24 @@
         <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>3.489230769230769</v>
       </c>
       <c r="F5" t="n">
-        <v>3.489230769230769</v>
+        <v>0.03930499325236167</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03930499325236167</v>
+        <v>0.09846153846153846</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09846153846153846</v>
+        <v>2.461538461538462</v>
       </c>
       <c r="I5" t="n">
-        <v>2.461538461538462</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -651,29 +634,26 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.521008403361345</v>
       </c>
       <c r="F6" t="n">
-        <v>2.521008403361345</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07720588235294118</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="I6" t="n">
-        <v>1.235294117647059</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -688,27 +668,24 @@
         <v>17</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.143790849673203</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.143790849673203</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9444444444444444</v>
-      </c>
       <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -725,27 +702,24 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.488888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.488888888888889</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,27 +736,24 @@
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>2.879120879120879</v>
       </c>
       <c r="F9" t="n">
-        <v>2.879120879120879</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1153846153846154</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,27 +770,24 @@
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>2.274725274725275</v>
       </c>
       <c r="F10" t="n">
-        <v>2.274725274725275</v>
+        <v>0.1810966810966811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1810966810966811</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="I10" t="n">
-        <v>1.857142857142857</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,27 +804,24 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3.57</v>
       </c>
       <c r="F11" t="n">
-        <v>3.57</v>
+        <v>0.1002406015037594</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1002406015037594</v>
+        <v>0.06833333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06833333333333333</v>
+        <v>1.64</v>
       </c>
       <c r="I11" t="n">
-        <v>1.64</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -873,27 +838,24 @@
         <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>2.943019943019943</v>
       </c>
       <c r="F12" t="n">
-        <v>2.943019943019943</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.03988603988603989</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03988603988603989</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="I12" t="n">
-        <v>1.037037037037037</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,27 +872,24 @@
         <v>56</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>3.643145161290323</v>
       </c>
       <c r="F13" t="n">
-        <v>3.643145161290323</v>
+        <v>0.004530423280423281</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004530423280423281</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0564516129032258</v>
+        <v>1.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -947,27 +906,24 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.681318681318681</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.681318681318681</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.9285714285714286</v>
-      </c>
       <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -987,24 +943,21 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.219047619047619</v>
       </c>
       <c r="F15" t="n">
-        <v>3.219047619047619</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1021,27 +974,24 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.791208791208791</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.357142857142857</v>
+      </c>
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.791208791208791</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.1043956043956044</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.357142857142857</v>
-      </c>
       <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,27 +1008,24 @@
         <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>3.933797909407665</v>
       </c>
       <c r="F17" t="n">
-        <v>3.933797909407665</v>
+        <v>0.09833420547706261</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09833420547706261</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03658536585365853</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1095,27 +1042,24 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3.558441558441559</v>
       </c>
       <c r="F18" t="n">
-        <v>3.558441558441559</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06493506493506493</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="I18" t="n">
-        <v>1.363636363636364</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1132,27 +1076,24 @@
         <v>36</v>
       </c>
       <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03025210084033613</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.028571428571428</v>
+      </c>
+      <c r="I19" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3.142857142857143</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.03025210084033613</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.028571428571428</v>
-      </c>
       <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,27 +1110,24 @@
         <v>38</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.046153846153846</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.154565901934323</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05846153846153846</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.046153846153846</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.154565901934323</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.05846153846153846</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.461538461538461</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1206,27 +1144,24 @@
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3.093567251461988</v>
       </c>
       <c r="F21" t="n">
-        <v>3.093567251461988</v>
+        <v>0.06140350877192981</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06140350877192981</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07602339181286549</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="I21" t="n">
-        <v>1.368421052631579</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,24 +1181,21 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.026143790849673</v>
       </c>
       <c r="F22" t="n">
-        <v>4.026143790849673</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0915032679738562</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="I22" t="n">
-        <v>1.555555555555556</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1280,27 +1212,24 @@
         <v>16</v>
       </c>
       <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.681818181818182</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.09722222222222221</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="I23" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.681818181818182</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.09722222222222221</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.333333333333333</v>
-      </c>
       <c r="J23" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1317,27 +1246,24 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="F24" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05434782608695652</v>
+        <v>1.25</v>
       </c>
       <c r="I24" t="n">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1354,27 +1280,24 @@
         <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>1.523809523809524</v>
       </c>
       <c r="F25" t="n">
-        <v>1.523809523809524</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="I25" t="n">
-        <v>1.857142857142857</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1391,27 +1314,24 @@
         <v>47</v>
       </c>
       <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.416666666666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06195121951219512</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.07833333333333334</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.416666666666666</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06195121951219512</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.07833333333333334</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.88</v>
-      </c>
       <c r="J26" t="n">
-        <v>6</v>
-      </c>
-      <c r="K26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,27 +1348,24 @@
         <v>18</v>
       </c>
       <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.066666666666667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="I27" t="n">
         <v>6</v>
       </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.066666666666667</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.125</v>
-      </c>
       <c r="J27" t="n">
-        <v>6</v>
-      </c>
-      <c r="K27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1465,27 +1382,24 @@
         <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="F28" t="n">
-        <v>2.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H28" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
-      </c>
-      <c r="K28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,27 +1416,24 @@
         <v>41</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>3.566153846153846</v>
       </c>
       <c r="F29" t="n">
-        <v>3.566153846153846</v>
+        <v>0.06446886446886448</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06446886446886448</v>
+        <v>0.06307692307692307</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06307692307692307</v>
+        <v>1.576923076923077</v>
       </c>
       <c r="I29" t="n">
-        <v>1.576923076923077</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,27 +1450,24 @@
         <v>32</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>2.733333333333333</v>
+        <v>0.08157407407407406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08157407407407406</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1523809523809524</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>2.133333333333333</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,27 +1484,24 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>2.608187134502924</v>
       </c>
       <c r="F31" t="n">
-        <v>2.608187134502924</v>
+        <v>0.1474986716321761</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1474986716321761</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08771929824561403</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="I31" t="n">
-        <v>1.578947368421053</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1607,33 +1512,30 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>3.326436781609195</v>
       </c>
       <c r="F32" t="n">
-        <v>3.233618233618234</v>
+        <v>0.03682304526748971</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04091449474165523</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0754985754985755</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>1.962962962962963</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
-      </c>
-      <c r="K32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,27 +1552,24 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2.83625730994152</v>
       </c>
       <c r="F33" t="n">
-        <v>2.83625730994152</v>
+        <v>0.01184585395111711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01184585395111711</v>
+        <v>0.07309941520467836</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07309941520467836</v>
+        <v>1.315789473684211</v>
       </c>
       <c r="I33" t="n">
-        <v>1.315789473684211</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1687,27 +1586,24 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>3.24505928853755</v>
       </c>
       <c r="F34" t="n">
-        <v>3.24505928853755</v>
+        <v>0.1176328502415459</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1176328502415459</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05928853754940711</v>
+        <v>1.304347826086957</v>
       </c>
       <c r="I34" t="n">
-        <v>1.304347826086957</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
-      </c>
-      <c r="K34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,27 +1620,24 @@
         <v>61</v>
       </c>
       <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.645977011494253</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01302806712962963</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.07011494252873564</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.033333333333333</v>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.645977011494253</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.01302806712962963</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.07011494252873564</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.033333333333333</v>
-      </c>
       <c r="J35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1764,24 +1657,21 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.314285714285715</v>
       </c>
       <c r="F36" t="n">
-        <v>3.314285714285715</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09523809523809523</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>1.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,27 +1688,24 @@
         <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
+        <v>1.822222222222222</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1477954144620811</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0761904761904762</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="I37" t="n">
         <v>3</v>
       </c>
-      <c r="F37" t="n">
-        <v>1.822222222222222</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1108465608465608</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.0761904761904762</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.066666666666667</v>
-      </c>
       <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1835,27 +1722,24 @@
         <v>24</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.715415019762846</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04743083003952569</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.043478260869565</v>
+      </c>
+      <c r="I38" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.715415019762846</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.04743083003952569</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.043478260869565</v>
-      </c>
       <c r="J38" t="n">
-        <v>5</v>
-      </c>
-      <c r="K38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,27 +1756,24 @@
         <v>26</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.793478260869565</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.04710144927536232</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="I39" t="n">
         <v>6</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.793478260869565</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.04710144927536232</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.083333333333333</v>
-      </c>
       <c r="J39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,27 +1790,24 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>2.990476190476191</v>
       </c>
       <c r="F40" t="n">
-        <v>2.990476190476191</v>
+        <v>0.01468883849836231</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01468883849836231</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05952380952380952</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I40" t="n">
-        <v>1.19047619047619</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1946,27 +1824,24 @@
         <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3.713846153846154</v>
       </c>
       <c r="F41" t="n">
-        <v>3.713846153846154</v>
+        <v>0.08219373219373219</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08219373219373219</v>
+        <v>0.04769230769230769</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04769230769230769</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="I41" t="n">
-        <v>1.192307692307692</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
-      </c>
-      <c r="K41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,24 +1861,21 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.406896551724138</v>
       </c>
       <c r="F42" t="n">
-        <v>3.406896551724138</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.04712643678160919</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04712643678160919</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>1.366666666666667</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,27 +1892,24 @@
         <v>14</v>
       </c>
       <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.901098901098901</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2017094017094017</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.08974358974358974</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.076923076923077</v>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.901098901098901</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.2622222222222222</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.08974358974358974</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.076923076923077</v>
-      </c>
       <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2057,27 +1926,24 @@
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="F44" t="n">
-        <v>2.171428571428571</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06593406593406594</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8571428571428571</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
-      </c>
-      <c r="K44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2094,27 +1960,24 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>5.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3.701298701298701</v>
       </c>
       <c r="F45" t="n">
-        <v>3.701298701298701</v>
+        <v>0.03051948051948052</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03051948051948052</v>
+        <v>0.05411255411255411</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05411255411255411</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="I45" t="n">
-        <v>1.136363636363636</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
-      </c>
-      <c r="K45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,27 +1994,24 @@
         <v>17</v>
       </c>
       <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.766666666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0193452380952381</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.07083333333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.766666666666667</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.0193452380952381</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.07083333333333333</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.0625</v>
-      </c>
       <c r="J46" t="n">
-        <v>3</v>
-      </c>
-      <c r="K46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2165,31 +2025,28 @@
         <v>24</v>
       </c>
       <c r="C47" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>3.02974828375286</v>
+        <v>0.1509045284780579</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06175070028011204</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07789855072463768</v>
+        <v>1.875</v>
       </c>
       <c r="I47" t="n">
-        <v>1.791666666666667</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2205,27 +2062,24 @@
         <v>31</v>
       </c>
       <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.376344086021505</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>5</v>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.376344086021505</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,27 +2096,24 @@
         <v>21</v>
       </c>
       <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>3</v>
       </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2279,27 +2130,24 @@
         <v>34</v>
       </c>
       <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.956521739130435</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.06159420289855073</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="I50" t="n">
         <v>6</v>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3.956521739130435</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.06159420289855073</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.416666666666667</v>
-      </c>
       <c r="J50" t="n">
-        <v>6</v>
-      </c>
-      <c r="K50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,27 +2164,24 @@
         <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3.876190476190477</v>
       </c>
       <c r="F51" t="n">
-        <v>3.876190476190477</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04329004329004329</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9090909090909091</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2353,27 +2198,24 @@
         <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2.245614035087719</v>
       </c>
       <c r="F52" t="n">
-        <v>2.245614035087719</v>
+        <v>0.03347310584152689</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03347310584152689</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06140350877192982</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="I52" t="n">
-        <v>1.105263157894737</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
-      </c>
-      <c r="K52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,24 +2235,21 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2.954545454545455</v>
       </c>
       <c r="F53" t="n">
-        <v>2.954545454545455</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1590909090909091</v>
+        <v>1.75</v>
       </c>
       <c r="I53" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2427,27 +2266,24 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.575757575757576</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="I54" t="n">
         <v>5</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2.575757575757576</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.9166666666666666</v>
-      </c>
       <c r="J54" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,24 +2303,21 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3.044117647058823</v>
       </c>
       <c r="F55" t="n">
-        <v>3.044117647058823</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.1066176470588235</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1066176470588235</v>
+        <v>1.705882352941176</v>
       </c>
       <c r="I55" t="n">
-        <v>1.705882352941176</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2501,27 +2334,24 @@
         <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="F56" t="n">
-        <v>2.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0625</v>
+        <v>0.9375</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9375</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2535,30 +2365,27 @@
         <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
+        <v>1.796296296296296</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05317460317460317</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.1060606060606061</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="I57" t="n">
         <v>3</v>
       </c>
-      <c r="F57" t="n">
-        <v>1.796296296296296</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.02916666666666667</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.09848484848484848</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.083333333333333</v>
-      </c>
       <c r="J57" t="n">
-        <v>3</v>
-      </c>
-      <c r="K57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2575,27 +2402,24 @@
         <v>22</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>2.941176470588236</v>
       </c>
       <c r="F58" t="n">
-        <v>2.941176470588236</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0718954248366013</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="I58" t="n">
-        <v>1.222222222222222</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
-      </c>
-      <c r="K58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2612,27 +2436,24 @@
         <v>26</v>
       </c>
       <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.473684210526316</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.07602339181286549</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.368421052631579</v>
+      </c>
+      <c r="I59" t="n">
         <v>6</v>
       </c>
-      <c r="E59" t="n">
-        <v>8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3.473684210526316</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.07602339181286549</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.368421052631579</v>
-      </c>
       <c r="J59" t="n">
-        <v>6</v>
-      </c>
-      <c r="K59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,27 +2470,24 @@
         <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>2.70940170940171</v>
       </c>
       <c r="F60" t="n">
-        <v>2.70940170940171</v>
+        <v>0.050491452991453</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03454678362573099</v>
+        <v>0.06461538461538462</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06461538461538462</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="I60" t="n">
-        <v>1.615384615384615</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2686,27 +2504,24 @@
         <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>2.287581699346405</v>
       </c>
       <c r="F61" t="n">
-        <v>2.287581699346405</v>
+        <v>0.1168717247664616</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06168229918229919</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06140350877192982</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="I61" t="n">
-        <v>1.105263157894737</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
-      </c>
-      <c r="K61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2723,27 +2538,24 @@
         <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>6.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3.361823361823362</v>
       </c>
       <c r="F62" t="n">
-        <v>3.361823361823362</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.07122507122507123</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07122507122507123</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="I62" t="n">
-        <v>1.851851851851852</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
-      </c>
-      <c r="K62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,27 +2572,24 @@
         <v>28</v>
       </c>
       <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.153846153846154</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04307692307692308</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.076923076923077</v>
+      </c>
+      <c r="I63" t="n">
         <v>6</v>
       </c>
-      <c r="E63" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4.153846153846154</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.04307692307692308</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.076923076923077</v>
-      </c>
       <c r="J63" t="n">
-        <v>6</v>
-      </c>
-      <c r="K63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2797,27 +2606,24 @@
         <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>2.912087912087912</v>
       </c>
       <c r="F64" t="n">
-        <v>2.912087912087912</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1153846153846154</v>
+        <v>1.5</v>
       </c>
       <c r="I64" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,27 +2640,24 @@
         <v>50</v>
       </c>
       <c r="D65" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.743951612903226</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.05725019516003123</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.05040322580645161</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="I65" t="n">
         <v>6</v>
       </c>
-      <c r="E65" t="n">
-        <v>7</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3.743951612903226</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.05725019516003123</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.05040322580645161</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.5625</v>
-      </c>
       <c r="J65" t="n">
-        <v>6</v>
-      </c>
-      <c r="K65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,27 +2674,24 @@
         <v>21</v>
       </c>
       <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.125541125541126</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="I66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3.125541125541126</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.9545454545454546</v>
-      </c>
       <c r="J66" t="n">
-        <v>5</v>
-      </c>
-      <c r="K66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,27 +2708,24 @@
         <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2.196969696969697</v>
       </c>
       <c r="F67" t="n">
-        <v>2.196969696969697</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1590909090909091</v>
+        <v>1.75</v>
       </c>
       <c r="I67" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
-      </c>
-      <c r="K67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,27 +2742,24 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="F68" t="n">
-        <v>1.904761904761905</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1904761904761905</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="I68" t="n">
-        <v>1.142857142857143</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
-      </c>
-      <c r="K68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,24 +2779,21 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2.476190476190476</v>
       </c>
       <c r="F69" t="n">
-        <v>2.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1047619047619048</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="I69" t="n">
-        <v>1.466666666666667</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,27 +2810,24 @@
         <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>3.506493506493506</v>
       </c>
       <c r="F70" t="n">
-        <v>3.506493506493506</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H70" t="n">
-        <v>0.06493506493506493</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="I70" t="n">
-        <v>1.363636363636364</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
-      </c>
-      <c r="K70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3053,30 +2841,27 @@
         <v>31</v>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2.980645161290322</v>
       </c>
       <c r="F71" t="n">
-        <v>3.290322580645161</v>
+        <v>0.0337629813436265</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.03440860215053763</v>
       </c>
       <c r="H71" t="n">
-        <v>0.03225806451612903</v>
+        <v>1.032258064516129</v>
       </c>
       <c r="I71" t="n">
-        <v>0.967741935483871</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>4</v>
-      </c>
-      <c r="K71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,27 +2878,24 @@
         <v>21</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3.573684210526316</v>
       </c>
       <c r="F72" t="n">
-        <v>3.573684210526316</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05500000000000001</v>
+        <v>0.05526315789473684</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05526315789473684</v>
+        <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
-      </c>
-      <c r="K72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,27 +2912,24 @@
         <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F73" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
-      </c>
-      <c r="K73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3167,27 +2946,24 @@
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>2.974358974358975</v>
       </c>
       <c r="F74" t="n">
-        <v>2.974358974358975</v>
+        <v>0.1132478632478633</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1132478632478633</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1282051282051282</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="I74" t="n">
-        <v>1.538461538461539</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
-      </c>
-      <c r="K74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,24 +2983,21 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2.58974358974359</v>
       </c>
       <c r="F75" t="n">
-        <v>2.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="H75" t="n">
-        <v>0.141025641025641</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="I75" t="n">
-        <v>1.692307692307692</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3241,27 +3014,24 @@
         <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3.445652173913043</v>
       </c>
       <c r="F76" t="n">
-        <v>3.445652173913043</v>
+        <v>0.06554112554112553</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03413600288600288</v>
+        <v>0.05</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05</v>
+        <v>1.2</v>
       </c>
       <c r="I76" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
-      </c>
-      <c r="K76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3281,24 +3051,21 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3.029411764705882</v>
       </c>
       <c r="F77" t="n">
-        <v>3.029411764705882</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07720588235294118</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="I77" t="n">
-        <v>1.235294117647059</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,24 +3085,21 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>2.241758241758242</v>
       </c>
       <c r="F78" t="n">
-        <v>2.241758241758242</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0989010989010989</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="I78" t="n">
-        <v>1.285714285714286</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,27 +3116,24 @@
         <v>39</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3.076719576719577</v>
       </c>
       <c r="F79" t="n">
-        <v>3.076719576719577</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="H79" t="n">
-        <v>0.05158730158730158</v>
+        <v>1.392857142857143</v>
       </c>
       <c r="I79" t="n">
-        <v>1.392857142857143</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
-      </c>
-      <c r="K79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,24 +3153,21 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="F80" t="n">
-        <v>3.272727272727273</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.07509881422924901</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07509881422924901</v>
+        <v>1.652173913043478</v>
       </c>
       <c r="I80" t="n">
-        <v>1.652173913043478</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3429,24 +3187,21 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3.561594202898551</v>
       </c>
       <c r="F81" t="n">
-        <v>3.561594202898551</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.04528985507246377</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04528985507246377</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="I81" t="n">
-        <v>1.041666666666667</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3466,24 +3221,21 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1.879551820728291</v>
       </c>
       <c r="F82" t="n">
-        <v>1.879551820728291</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07720588235294118</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="I82" t="n">
-        <v>1.235294117647059</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3500,27 +3252,24 @@
         <v>33</v>
       </c>
       <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.398268398268398</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.08504828504828504</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I83" t="n">
         <v>6</v>
       </c>
-      <c r="E83" t="n">
-        <v>12</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3.398268398268398</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.08504828504828504</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.5</v>
-      </c>
       <c r="J83" t="n">
-        <v>6</v>
-      </c>
-      <c r="K83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3537,27 +3286,24 @@
         <v>27</v>
       </c>
       <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.6875</v>
+      </c>
+      <c r="I84" t="n">
         <v>5</v>
       </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.866666666666667</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.6875</v>
-      </c>
       <c r="J84" t="n">
-        <v>5</v>
-      </c>
-      <c r="K84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,27 +3320,24 @@
         <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>2.955882352941177</v>
       </c>
       <c r="F85" t="n">
-        <v>2.955882352941177</v>
+        <v>0.05123456790123457</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02712418300653595</v>
+        <v>0.07516339869281045</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07516339869281045</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="I85" t="n">
-        <v>1.277777777777778</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
-      </c>
-      <c r="K85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3611,27 +3354,24 @@
         <v>24</v>
       </c>
       <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.421052631578947</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.03016666666666667</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.06315789473684211</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I86" t="n">
         <v>6</v>
       </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3.421052631578947</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.03016666666666667</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.06315789473684211</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J86" t="n">
-        <v>6</v>
-      </c>
-      <c r="K86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,27 +3388,24 @@
         <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3.711462450592885</v>
       </c>
       <c r="F87" t="n">
-        <v>3.711462450592885</v>
+        <v>0.02463768115942029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02463768115942029</v>
+        <v>0.08893280632411067</v>
       </c>
       <c r="H87" t="n">
-        <v>0.08893280632411067</v>
+        <v>1.956521739130435</v>
       </c>
       <c r="I87" t="n">
-        <v>1.956521739130435</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,27 +3422,24 @@
         <v>24</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>3.246753246753247</v>
       </c>
       <c r="F88" t="n">
-        <v>3.246753246753247</v>
+        <v>0.04307359307359307</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04307359307359307</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05194805194805195</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="I88" t="n">
-        <v>1.090909090909091</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
-      </c>
-      <c r="K88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,27 +3456,24 @@
         <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>1.590909090909091</v>
       </c>
       <c r="F89" t="n">
-        <v>1.590909090909091</v>
+        <v>0.2348484848484848</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1909090909090909</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="I89" t="n">
-        <v>1.909090909090909</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3759,27 +3490,24 @@
         <v>44</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3.663333333333334</v>
       </c>
       <c r="F90" t="n">
-        <v>3.663333333333334</v>
+        <v>0.02266666666666666</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02266666666666666</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07333333333333333</v>
+        <v>1.76</v>
       </c>
       <c r="I90" t="n">
-        <v>1.76</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,27 +3524,24 @@
         <v>26</v>
       </c>
       <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.05042016806722689</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.529411764705882</v>
+      </c>
+      <c r="I91" t="n">
         <v>5</v>
       </c>
-      <c r="E91" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.09558823529411764</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.529411764705882</v>
-      </c>
       <c r="J91" t="n">
-        <v>5</v>
-      </c>
-      <c r="K91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,27 +3558,24 @@
         <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1.821428571428571</v>
       </c>
       <c r="F92" t="n">
-        <v>1.821428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1785714285714286</v>
+        <v>1.25</v>
       </c>
       <c r="I92" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,27 +3592,24 @@
         <v>40</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>4.787692307692308</v>
       </c>
       <c r="F93" t="n">
-        <v>4.787692307692308</v>
+        <v>0.07139265962795373</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07139265962795373</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="H93" t="n">
-        <v>0.06153846153846154</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="I93" t="n">
-        <v>1.538461538461539</v>
+        <v>8</v>
       </c>
       <c r="J93" t="n">
-        <v>8</v>
-      </c>
-      <c r="K93" t="n">
         <v>1</v>
       </c>
     </row>

--- a/result/Database_indiv.xlsx
+++ b/result/Database_indiv.xlsx
@@ -3456,7 +3456,7 @@
         <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>1.590909090909091</v>
